--- a/data/indiaeducationdata.xlsx
+++ b/data/indiaeducationdata.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,44 +418,50 @@
       <c r="E1" t="str">
         <v>Headquarters</v>
       </c>
+      <c r="F1" t="str">
+        <v>Phone</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Institute of Post Graduate Medical Education &amp; Research</v>
+        <v>Podar Education Network</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.ipgmer.gov.in</v>
+        <v>https://www.podareducation.org/</v>
       </c>
       <c r="C2" t="str">
-        <v>Higher Education</v>
+        <v>Primary and Secondary Education</v>
       </c>
       <c r="D2" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E2" t="str">
-        <v>Kolkata, West Bengal</v>
+        <v>Parel, Maharashtra</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Regional Institute of Education (A Constituent Unit of NCERT, New Delhi), Bhopal, India</v>
+        <v>FICCI Education</v>
       </c>
       <c r="B3" t="str">
-        <v>https://riebhopal.nic.in/</v>
+        <v>https://ficci.in/sector.asp?sectorid=11</v>
       </c>
       <c r="C3" t="str">
-        <v>Higher Education</v>
+        <v>Education</v>
       </c>
       <c r="D3" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E3" t="str">
-        <v>Bhopal, Madhya Pradesh</v>
+        <v>New Delhi, Delhi</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>RITNAND BALVED EDUCATION FOUNDATION</v>
+        <v>Institute of Post Graduate Medical Education &amp; Research</v>
+      </c>
+      <c r="B4" t="str">
+        <v>http://www.ipgmer.gov.in</v>
       </c>
       <c r="C4" t="str">
         <v>Higher Education</v>
@@ -464,32 +470,29 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E4" t="str">
-        <v>New Delhi, Delhi</v>
+        <v>Kolkata, West Bengal</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amity University</v>
+        <v>Vivekanand Education Society</v>
       </c>
       <c r="B5" t="str">
-        <v>http://www.amity.edu</v>
+        <v>ves.ac.in</v>
       </c>
       <c r="C5" t="str">
-        <v>Higher Education</v>
+        <v>Education</v>
       </c>
       <c r="D5" t="str">
         <v>5,001-10,000 employees</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Noida, UP</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Indian Institute of Technology, Madras</v>
+        <v>Regional Institute of Education (A Constituent Unit of NCERT, New Delhi), Bhopal, India</v>
       </c>
       <c r="B6" t="str">
-        <v>http://www.iitm.ac.in/</v>
+        <v>https://riebhopal.nic.in/</v>
       </c>
       <c r="C6" t="str">
         <v>Higher Education</v>
@@ -498,15 +501,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E6" t="str">
-        <v>Chennai, Tamilnadu</v>
+        <v>Bhopal, Madhya Pradesh</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0755 252 2012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Chitkara University</v>
-      </c>
-      <c r="B7" t="str">
-        <v>http://www.chitkara.edu.in</v>
+        <v>RITNAND BALVED EDUCATION FOUNDATION</v>
       </c>
       <c r="C7" t="str">
         <v>Higher Education</v>
@@ -515,29 +518,35 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E7" t="str">
-        <v>Chandigarh, India</v>
+        <v>New Delhi, Delhi</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Bharati Vidyapeeth</v>
+        <v>Maharashtra State Board of Technical Education</v>
       </c>
       <c r="B8" t="str">
-        <v>http://www.bharatividyapeeth.edu/</v>
+        <v>www.msbte.org.in</v>
       </c>
       <c r="C8" t="str">
-        <v>Higher Education</v>
+        <v>Technical and Vocational Training</v>
       </c>
       <c r="D8" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Mumbai, Maharashtra</v>
+      </c>
+      <c r="F8" t="str">
+        <v>022-62542100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>National Institute of Information Technology</v>
+        <v>Amity University</v>
       </c>
       <c r="B9" t="str">
-        <v>https://www.niit.com</v>
+        <v>http://www.amity.edu</v>
       </c>
       <c r="C9" t="str">
         <v>Higher Education</v>
@@ -546,32 +555,32 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E9" t="str">
-        <v>Gurgaon, Haryana</v>
+        <v>Noida, UP</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Vidyalankar Institute of Technology, Mumbai</v>
+        <v>Unacademy</v>
       </c>
       <c r="B10" t="str">
-        <v>http://www.vit.edu.in</v>
+        <v>http://unacademy.com</v>
       </c>
       <c r="C10" t="str">
-        <v>Higher Education</v>
+        <v>E-Learning Providers</v>
       </c>
       <c r="D10" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E10" t="str">
-        <v>Mumbai, Maharashtra</v>
+        <v>Bangalore, Karnataka</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Campus Law Centre, Faculty Of Law, University of Delhi</v>
+        <v>Indian Institute of Technology, Madras</v>
       </c>
       <c r="B11" t="str">
-        <v>http://clc.du.ac.in</v>
+        <v>http://www.iitm.ac.in/</v>
       </c>
       <c r="C11" t="str">
         <v>Higher Education</v>
@@ -580,15 +589,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E11" t="str">
-        <v>New Delhi, Delhi</v>
+        <v>Chennai, Tamilnadu</v>
+      </c>
+      <c r="F11" t="str">
+        <v>9884303951</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Chatrapati Sahuji Maharaj Kanpur University, Kanpur</v>
+        <v>Chitkara University</v>
       </c>
       <c r="B12" t="str">
-        <v>https://onlinecareer360.com/</v>
+        <v>http://www.chitkara.edu.in</v>
       </c>
       <c r="C12" t="str">
         <v>Higher Education</v>
@@ -597,15 +609,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E12" t="str">
-        <v>Kanpur Nagar, Uttar Pradesh</v>
+        <v>Chandigarh, India</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Indian Institute of Management, Lucknow</v>
+        <v>Bharati Vidyapeeth</v>
       </c>
       <c r="B13" t="str">
-        <v>http://www.iiml.ac.in/</v>
+        <v>http://www.bharatividyapeeth.edu/</v>
       </c>
       <c r="C13" t="str">
         <v>Higher Education</v>
@@ -613,30 +625,36 @@
       <c r="D13" t="str">
         <v>5,001-10,000 employees</v>
       </c>
-      <c r="E13" t="str">
-        <v>Lucknow, uttar pradesh</v>
+      <c r="F13" t="str">
+        <v>+91(20)24335562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Rajiv Gandhi University of Health Sciences</v>
+        <v>WhiteHat Jr</v>
       </c>
       <c r="B14" t="str">
-        <v>https://onlinecareer360.com/</v>
+        <v>https://careers.whitehatjr.com/</v>
       </c>
       <c r="C14" t="str">
-        <v>Higher Education</v>
+        <v>E-Learning Providers</v>
       </c>
       <c r="D14" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Mumbai , MH</v>
+      </c>
+      <c r="F14" t="str">
+        <v>02248963001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Jawaharlal Nehru Technological University, Kakinada</v>
+        <v>National Institute of Information Technology</v>
       </c>
       <c r="B15" t="str">
-        <v>http://www.jntuk.edu.in</v>
+        <v>https://www.niit.com</v>
       </c>
       <c r="C15" t="str">
         <v>Higher Education</v>
@@ -645,15 +663,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E15" t="str">
-        <v>KAKINADA, Andhra Pradesh</v>
+        <v>Gurgaon, Haryana</v>
+      </c>
+      <c r="F15" t="str">
+        <v>180030006448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>University of Kashmir</v>
+        <v>Vidyalankar Institute of Technology, Mumbai</v>
       </c>
       <c r="B16" t="str">
-        <v>http://www.kashmiruniversity.net</v>
+        <v>http://www.vit.edu.in</v>
       </c>
       <c r="C16" t="str">
         <v>Higher Education</v>
@@ -662,57 +683,69 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E16" t="str">
-        <v>Srinagar, Jammu &amp; Kashmir</v>
+        <v>Mumbai, Maharashtra</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Banaras Hindu University</v>
+        <v>PW (PhysicsWallah)</v>
       </c>
       <c r="B17" t="str">
-        <v>http://www.bhu.ac.in/</v>
+        <v>https://www.linkedin.com/redir/suspicious-page?url=https%3A%2F%2Fwww%2epw%2elive%2F</v>
       </c>
       <c r="C17" t="str">
-        <v>Higher Education</v>
+        <v>E-Learning Providers</v>
       </c>
       <c r="D17" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Noida, Uttar Pradesh</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Alagappa University</v>
+        <v>Campus Law Centre, Faculty Of Law, University of Delhi</v>
       </c>
       <c r="B18" t="str">
-        <v>http://onlinecareer360.com/</v>
+        <v>http://clc.du.ac.in</v>
       </c>
       <c r="C18" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D18" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E18" t="str">
+        <v>New Delhi, Delhi</v>
+      </c>
+      <c r="F18" t="str">
+        <v>+91 1127667895</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Hemwati Nandan Bahuguna Garhwal University</v>
+        <v>Chatrapati Sahuji Maharaj Kanpur University, Kanpur</v>
       </c>
       <c r="B19" t="str">
-        <v>http://onlinecareer360.com/</v>
+        <v>https://onlinecareer360.com/</v>
       </c>
       <c r="C19" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D19" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Kanpur Nagar, Uttar Pradesh</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Guru Nanak Dev University, Amritsar</v>
+        <v>Indian Institute of Management, Lucknow</v>
       </c>
       <c r="B20" t="str">
-        <v>http://www.gndu.ac.in</v>
+        <v>http://www.iiml.ac.in/</v>
       </c>
       <c r="C20" t="str">
         <v>Higher Education</v>
@@ -721,46 +754,49 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E20" t="str">
-        <v>Amritsar, Punjab</v>
+        <v>Lucknow, uttar pradesh</v>
+      </c>
+      <c r="F20" t="str">
+        <v>(91)522-6696001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Maharishi Markandeshwar (Deemed to be University) Official</v>
+        <v>Rajiv Gandhi University of Health Sciences</v>
       </c>
       <c r="B21" t="str">
-        <v>http://www.mmumullana.org</v>
+        <v>https://onlinecareer360.com/</v>
       </c>
       <c r="C21" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D21" t="str">
         <v>5,001-10,000 employees</v>
-      </c>
-      <c r="E21" t="str">
-        <v>Ambala, Haryana</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Karnataka State Open University</v>
+        <v>Jawaharlal Nehru Technological University, Kakinada</v>
       </c>
       <c r="B22" t="str">
-        <v>https://onlinecareer360.com/</v>
+        <v>http://www.jntuk.edu.in</v>
       </c>
       <c r="C22" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D22" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E22" t="str">
+        <v>KAKINADA, Andhra Pradesh</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Presidency University Bangalore</v>
+        <v>University of Kashmir</v>
       </c>
       <c r="B23" t="str">
-        <v>Apply Now : https://bit.ly/3Q7MAB4</v>
+        <v>http://www.kashmiruniversity.net</v>
       </c>
       <c r="C23" t="str">
         <v>Higher Education</v>
@@ -769,15 +805,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E23" t="str">
-        <v>Bangalore, Karnataka</v>
+        <v>Srinagar, Jammu &amp; Kashmir</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Higher One</v>
+        <v>Banaras Hindu University</v>
       </c>
       <c r="B24" t="str">
-        <v>http://www.HigherOne.com</v>
+        <v>http://www.bhu.ac.in/</v>
       </c>
       <c r="C24" t="str">
         <v>Higher Education</v>
@@ -785,50 +821,44 @@
       <c r="D24" t="str">
         <v>5,001-10,000 employees</v>
       </c>
-      <c r="E24" t="str">
-        <v>New Haven, Connecticut</v>
+      <c r="F24" t="str">
+        <v>915422368938</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Graphic Era Hill University</v>
+        <v>Alagappa University</v>
       </c>
       <c r="B25" t="str">
-        <v>http://www.gehu.ac.in</v>
+        <v>http://onlinecareer360.com/</v>
       </c>
       <c r="C25" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D25" t="str">
         <v>5,001-10,000 employees</v>
-      </c>
-      <c r="E25" t="str">
-        <v>Dehradun, Uttarakhand</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Dr MGR Educational and Research Institute</v>
+        <v>Hemwati Nandan Bahuguna Garhwal University</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.drmgrdu.ac.in/</v>
+        <v>http://onlinecareer360.com/</v>
       </c>
       <c r="C26" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D26" t="str">
         <v>5,001-10,000 employees</v>
-      </c>
-      <c r="E26" t="str">
-        <v>Chennai, Tamil Nadu</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Vinayaka Mission's Research Foundation - University</v>
+        <v>Guru Nanak Dev University, Amritsar</v>
       </c>
       <c r="B27" t="str">
-        <v>http://www.vmrfdu.edu.in</v>
+        <v>http://www.gndu.ac.in</v>
       </c>
       <c r="C27" t="str">
         <v>Higher Education</v>
@@ -837,15 +867,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E27" t="str">
-        <v>Salem, Tamil Nadu</v>
+        <v>Amritsar, Punjab</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>L.D. College of Engineering</v>
+        <v>Maharishi Markandeshwar (Deemed to be University) Official</v>
       </c>
       <c r="B28" t="str">
-        <v>http://www.ldce.ac.in</v>
+        <v>http://www.mmumullana.org</v>
       </c>
       <c r="C28" t="str">
         <v>Higher Education</v>
@@ -854,12 +884,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E28" t="str">
-        <v>Ahmedabad, Gujarat</v>
+        <v>Ambala, Haryana</v>
+      </c>
+      <c r="F28" t="str">
+        <v>8059932367</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Guru Jambheshwar University</v>
+        <v>Karnataka State Open University</v>
       </c>
       <c r="B29" t="str">
         <v>https://onlinecareer360.com/</v>
@@ -870,47 +903,53 @@
       <c r="D29" t="str">
         <v>5,001-10,000 employees</v>
       </c>
-      <c r="E29" t="str">
-        <v>Hisar, Haryana</v>
+      <c r="F29" t="str">
+        <v>0821-2512471</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Tamil Nadu Agricultural University</v>
+        <v>Educomp Solutions Ltd</v>
       </c>
       <c r="B30" t="str">
-        <v>http://www.tnau.ac.in/</v>
+        <v>http://www.educomp.com</v>
       </c>
       <c r="C30" t="str">
-        <v>Higher Education</v>
+        <v>E-learning</v>
       </c>
       <c r="D30" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E30" t="str">
-        <v>Coimbatore, Tamil Nadu</v>
+        <v>Gurgaon, Haryana</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Siksha 'O'​ Anusandhan University</v>
+        <v>Presidency University Bangalore</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.soa.ac.in</v>
+        <v>Apply Now : https://bit.ly/3Q7MAB4</v>
       </c>
       <c r="C31" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D31" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Bangalore, Karnataka</v>
+      </c>
+      <c r="F31" t="str">
+        <v>6366782344</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>IIT Bombay - Shailesh J. Mehta School of Management</v>
+        <v>Higher One</v>
       </c>
       <c r="B32" t="str">
-        <v>http://www.som.iitb.ac.in/</v>
+        <v>http://www.HigherOne.com</v>
       </c>
       <c r="C32" t="str">
         <v>Higher Education</v>
@@ -919,46 +958,52 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E32" t="str">
-        <v>Mumbai, Maharashtra</v>
+        <v>New Haven, Connecticut</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Lakshmi Narain College of Technology, Kalchuri Nagar, Raisen Road, Post Klua, Bhopal-462021</v>
+        <v>Focus Edumatics Pvt Ltd</v>
       </c>
       <c r="B33" t="str">
-        <v>http://www.lnctgroup.in</v>
+        <v>http://www.focusedumatics.com</v>
       </c>
       <c r="C33" t="str">
-        <v>Higher Education</v>
+        <v>E-Learning Providers</v>
       </c>
       <c r="D33" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E33" t="str">
-        <v>Bhopal, Madhya Pradesh</v>
+        <v>Bangalore, Karnataka</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Dyal Singh College</v>
+        <v>Graphic Era Hill University</v>
       </c>
       <c r="B34" t="str">
-        <v>http://www.dsctcs.com/</v>
+        <v>http://www.gehu.ac.in</v>
       </c>
       <c r="C34" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D34" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Dehradun, Uttarakhand</v>
+      </c>
+      <c r="F34" t="str">
+        <v>1800-270-1280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Banaras Hindu University, Banaras</v>
+        <v>Dr MGR Educational and Research Institute</v>
       </c>
       <c r="B35" t="str">
-        <v>https://onlinecareer360.com/</v>
+        <v>https://www.drmgrdu.ac.in/</v>
       </c>
       <c r="C35" t="str">
         <v>Higher Education</v>
@@ -967,15 +1012,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E35" t="str">
-        <v>Varanasi, Uttar Pradesh</v>
+        <v>Chennai, Tamil Nadu</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Vishwakarma Government Engineering College</v>
+        <v>Indian Institute of Technology Jodhpur</v>
       </c>
       <c r="B36" t="str">
-        <v>http://www.vgecg.ac.in</v>
+        <v>http://iitj.ac.in/</v>
       </c>
       <c r="C36" t="str">
         <v>Higher Education</v>
@@ -984,15 +1029,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E36" t="str">
-        <v>Ahmedabad, Gujarat</v>
+        <v>Jodhpur, Rajasthan</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Saveetha School of Engineering</v>
+        <v>Vinayaka Mission's Research Foundation - University</v>
       </c>
       <c r="B37" t="str">
-        <v>http://www.saveetha.com</v>
+        <v>http://www.vmrfdu.edu.in</v>
       </c>
       <c r="C37" t="str">
         <v>Higher Education</v>
@@ -1001,15 +1046,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E37" t="str">
-        <v>CHENNAI 602 105, Tamil Nadu</v>
+        <v>Salem, Tamil Nadu</v>
+      </c>
+      <c r="F37" t="str">
+        <v>914272529700</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Odisha University of Technology and Research</v>
+        <v>L.D. College of Engineering</v>
       </c>
       <c r="B38" t="str">
-        <v>http://www.outr.ac.in</v>
+        <v>http://www.ldce.ac.in</v>
       </c>
       <c r="C38" t="str">
         <v>Higher Education</v>
@@ -1018,15 +1066,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E38" t="str">
-        <v>Bhubaneswar, Odisha</v>
+        <v>Ahmedabad, Gujarat</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>GALGOTIA S COLLEGE OF ENGINEERING AND TECHNOLOGY, GREATER NOIDA</v>
+        <v>Guru Jambheshwar University</v>
       </c>
       <c r="B39" t="str">
-        <v>http://www.galgotiacollege.edu</v>
+        <v>https://onlinecareer360.com/</v>
       </c>
       <c r="C39" t="str">
         <v>Higher Education</v>
@@ -1035,15 +1083,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E39" t="str">
-        <v>GREATER NOIDA, Uttar Pradesh</v>
+        <v>Hisar, Haryana</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>National Institute of Agricultural Extension Management (MANAGE)</v>
+        <v>Tamil Nadu Agricultural University</v>
       </c>
       <c r="B40" t="str">
-        <v>http://www.manage.gov.in/pgdmABM/pgdmABM.asp</v>
+        <v>http://www.tnau.ac.in/</v>
       </c>
       <c r="C40" t="str">
         <v>Higher Education</v>
@@ -1052,15 +1100,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E40" t="str">
-        <v>Hyderabad, Telangana State,</v>
+        <v>Coimbatore, Tamil Nadu</v>
+      </c>
+      <c r="F40" t="str">
+        <v>91-422-6611200</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Director, IIT Kanpur</v>
+        <v>Siksha 'O'​ Anusandhan University</v>
       </c>
       <c r="B41" t="str">
-        <v>https://iitk.ac.in/</v>
+        <v>https://www.soa.ac.in</v>
       </c>
       <c r="C41" t="str">
         <v>Higher Education</v>
@@ -1068,16 +1119,16 @@
       <c r="D41" t="str">
         <v>5,001-10,000 employees</v>
       </c>
-      <c r="E41" t="str">
-        <v>Kanpur, Uttar Pradesh</v>
+      <c r="F41" t="str">
+        <v>9040003290</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Government College of Engineering, Amravati.</v>
+        <v>IIT Bombay - Shailesh J. Mehta School of Management</v>
       </c>
       <c r="B42" t="str">
-        <v>http://www.gcoea.ac.in</v>
+        <v>http://www.som.iitb.ac.in/</v>
       </c>
       <c r="C42" t="str">
         <v>Higher Education</v>
@@ -1086,32 +1137,35 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E42" t="str">
-        <v>Amravati, Maharashtra</v>
+        <v>Mumbai, Maharashtra</v>
+      </c>
+      <c r="F42" t="str">
+        <v>+91 22 25767781</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Amity University Raipur</v>
+        <v>RV University</v>
       </c>
       <c r="B43" t="str">
-        <v>http://www.amity.edu/raipur</v>
+        <v>http://rvu.edu.in/</v>
       </c>
       <c r="C43" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D43" t="str">
         <v>5,001-10,000 employees</v>
       </c>
-      <c r="E43" t="str">
-        <v>Raipur, Chhattisgarh</v>
+      <c r="F43" t="str">
+        <v>+918951179896</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>IIMT ENGINEERING COLLEGE, MEERUT</v>
+        <v>Lakshmi Narain College of Technology, Kalchuri Nagar, Raisen Road, Post Klua, Bhopal-462021</v>
       </c>
       <c r="B44" t="str">
-        <v>http://www.iimtu.com</v>
+        <v>http://www.lnctgroup.in</v>
       </c>
       <c r="C44" t="str">
         <v>Higher Education</v>
@@ -1120,32 +1174,29 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E44" t="str">
-        <v>Meerut, Uttar Pradesh</v>
+        <v>Bhopal, Madhya Pradesh</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>FAROOK COLLEGE, KOZHIKKODE</v>
+        <v>Dyal Singh College</v>
       </c>
       <c r="B45" t="str">
-        <v>http://www.farookcollege.ac.in</v>
+        <v>http://www.dsctcs.com/</v>
       </c>
       <c r="C45" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D45" t="str">
         <v>5,001-10,000 employees</v>
-      </c>
-      <c r="E45" t="str">
-        <v>KOZHIKODE, Kerala</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Deakin University GIFT City Campus, India</v>
+        <v>Banaras Hindu University, Banaras</v>
       </c>
       <c r="B46" t="str">
-        <v>https://www.deakin.edu.au/gift-city-campus-india</v>
+        <v>https://onlinecareer360.com/</v>
       </c>
       <c r="C46" t="str">
         <v>Higher Education</v>
@@ -1154,15 +1205,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E46" t="str">
-        <v>GIFT City, Gujarat</v>
+        <v>Varanasi, Uttar Pradesh</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>jims-delhi</v>
+        <v>Vishwakarma Government Engineering College</v>
       </c>
       <c r="B47" t="str">
-        <v>https://www.jagannath.org</v>
+        <v>http://www.vgecg.ac.in</v>
       </c>
       <c r="C47" t="str">
         <v>Higher Education</v>
@@ -1171,15 +1222,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E47" t="str">
-        <v>New Delhi, Delhi</v>
+        <v>Ahmedabad, Gujarat</v>
+      </c>
+      <c r="F47" t="str">
+        <v>079 2329 3866</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>JSS Medical College, Mysore</v>
+        <v>Saveetha School of Engineering</v>
       </c>
       <c r="B48" t="str">
-        <v>http://www.jssmedicalcollege.in</v>
+        <v>http://www.saveetha.com</v>
       </c>
       <c r="C48" t="str">
         <v>Higher Education</v>
@@ -1188,15 +1242,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E48" t="str">
-        <v>Mysore, Karnataka</v>
+        <v>CHENNAI 602 105, Tamil Nadu</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Shivajirao S Jondhale College of Engineering Vishnu Nagar Dombivli (West) Dist Thane</v>
+        <v>Odisha University of Technology and Research</v>
       </c>
       <c r="B49" t="str">
-        <v>https://shivajiraojondhalecoe.org.in/</v>
+        <v>http://www.outr.ac.in</v>
       </c>
       <c r="C49" t="str">
         <v>Higher Education</v>
@@ -1205,77 +1259,83 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E49" t="str">
-        <v>Dombivli, Maharashtra</v>
+        <v>Bhubaneswar, Odisha</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Dev Bhoomi Institute Of Technology</v>
+        <v>The Neotia University</v>
       </c>
       <c r="B50" t="str">
-        <v>http://www.dbitdoon.com</v>
+        <v>http://www.tnu.in</v>
       </c>
       <c r="C50" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D50" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E50" t="str">
-        <v>Dehradun, Uttaranchal</v>
+        <v>Kolkata, West Bengal</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Madan Mohan Malaviya Engineering College (MMMEC)</v>
+        <v>GALGOTIA S COLLEGE OF ENGINEERING AND TECHNOLOGY, GREATER NOIDA</v>
       </c>
       <c r="B51" t="str">
-        <v>http://www.mmmec.net</v>
+        <v>http://www.galgotiacollege.edu</v>
       </c>
       <c r="C51" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D51" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E51" t="str">
+        <v>GREATER NOIDA, Uttar Pradesh</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Textile &amp; Engineering Institute, Rajwada Chowk, ICHALKARNJI</v>
+        <v>Maulana Azad Medical College</v>
+      </c>
+      <c r="B52" t="str">
+        <v>http://mamc.ac.in</v>
       </c>
       <c r="C52" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D52" t="str">
         <v>5,001-10,000 employees</v>
-      </c>
-      <c r="E52" t="str">
-        <v>Ichalkaranji, Maharashtra</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>ADESH UNIVERSITY</v>
+        <v>RBGI - Rayat Bahra Group of Institutes</v>
       </c>
       <c r="B53" t="str">
-        <v>http://adeshuniversity.ac.in</v>
+        <v>https://rayatbahrauniversity.edu.in/</v>
       </c>
       <c r="C53" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D53" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E53" t="str">
-        <v>Bathinda, Punjab</v>
+        <v>Chanduigarh, Chandigarh</v>
+      </c>
+      <c r="F53" t="str">
+        <v>0160-5009665</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Dr.N.G.P. Institute of Technology.</v>
+        <v>National Institute of Agricultural Extension Management (MANAGE)</v>
       </c>
       <c r="B54" t="str">
-        <v>http://www.drngpit.ac.in</v>
+        <v>http://www.manage.gov.in/pgdmABM/pgdmABM.asp</v>
       </c>
       <c r="C54" t="str">
         <v>Higher Education</v>
@@ -1284,15 +1344,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E54" t="str">
-        <v>Coimbatore, Tamil Nadu</v>
+        <v>Hyderabad, Telangana State,</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>K S Institute of Technology, BANGALORE</v>
+        <v>Director, IIT Kanpur</v>
       </c>
       <c r="B55" t="str">
-        <v>https://sarkariresults360.in</v>
+        <v>https://iitk.ac.in/</v>
       </c>
       <c r="C55" t="str">
         <v>Higher Education</v>
@@ -1301,15 +1361,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E55" t="str">
-        <v>Bangalore - 560 062., Karnataka</v>
+        <v>Kanpur, Uttar Pradesh</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Central University of Gujarat - India</v>
+        <v>Government College of Engineering, Amravati.</v>
       </c>
       <c r="B56" t="str">
-        <v>http://cug.ac.in</v>
+        <v>http://www.gcoea.ac.in</v>
       </c>
       <c r="C56" t="str">
         <v>Higher Education</v>
@@ -1318,15 +1378,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E56" t="str">
-        <v>Gandhinagar, Gujarat</v>
+        <v>Amravati, Maharashtra</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Krishna Vishwa Vidyapeeth "Deemed to be University"</v>
+        <v>Amity University Raipur</v>
       </c>
       <c r="B57" t="str">
-        <v>http://www.kvv.edu.in</v>
+        <v>http://www.amity.edu/raipur</v>
       </c>
       <c r="C57" t="str">
         <v>Higher Education</v>
@@ -1335,15 +1395,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E57" t="str">
-        <v>KARAD, Maharashtra</v>
+        <v>Raipur, Chhattisgarh</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Destination Manipal</v>
+        <v>IIMT ENGINEERING COLLEGE, MEERUT</v>
       </c>
       <c r="B58" t="str">
-        <v>http://www.manipal.edu</v>
+        <v>http://www.iimtu.com</v>
       </c>
       <c r="C58" t="str">
         <v>Higher Education</v>
@@ -1352,15 +1412,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E58" t="str">
-        <v>Manipal, Karnataka</v>
+        <v>Meerut, Uttar Pradesh</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>JNU Placement Cell</v>
+        <v>FAROOK COLLEGE, KOZHIKKODE</v>
       </c>
       <c r="B59" t="str">
-        <v>http://jnu.ac.in/placementcell/</v>
+        <v>http://www.farookcollege.ac.in</v>
       </c>
       <c r="C59" t="str">
         <v>Higher Education</v>
@@ -1369,15 +1429,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E59" t="str">
-        <v>New Delhi, Delhi</v>
+        <v>KOZHIKODE, Kerala</v>
+      </c>
+      <c r="F59" t="str">
+        <v>+91 495 2440660</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Dayananda Sagar Business School</v>
+        <v>Deakin University GIFT City Campus, India</v>
       </c>
       <c r="B60" t="str">
-        <v>www.dsbs.edu.in</v>
+        <v>https://www.deakin.edu.au/gift-city-campus-india</v>
       </c>
       <c r="C60" t="str">
         <v>Higher Education</v>
@@ -1386,15 +1449,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E60" t="str">
-        <v>Bangalore, Karnataka</v>
+        <v>GIFT City, Gujarat</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Seethalakshmi Ramaswami College, Tiruchirappalli - 620 002.</v>
+        <v>jims-delhi</v>
       </c>
       <c r="B61" t="str">
-        <v>http://www.srcollege.edu.in</v>
+        <v>https://www.jagannath.org</v>
       </c>
       <c r="C61" t="str">
         <v>Higher Education</v>
@@ -1403,15 +1466,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E61" t="str">
-        <v>Tiruchirappalli, Tamil Nadu</v>
+        <v>New Delhi, Delhi</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Synergy University India</v>
+        <v>JSS Medical College, Mysore</v>
       </c>
       <c r="B62" t="str">
-        <v>https://synergyuniversity.in/</v>
+        <v>http://www.jssmedicalcollege.in</v>
       </c>
       <c r="C62" t="str">
         <v>Higher Education</v>
@@ -1420,15 +1483,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E62" t="str">
-        <v>Gurugram, Haryana</v>
+        <v>Mysore, Karnataka</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Central University of Tamil Nadu - India</v>
+        <v>Shivajirao S Jondhale College of Engineering Vishnu Nagar Dombivli (West) Dist Thane</v>
       </c>
       <c r="B63" t="str">
-        <v>http://cutn.ac.in</v>
+        <v>https://shivajiraojondhalecoe.org.in/</v>
       </c>
       <c r="C63" t="str">
         <v>Higher Education</v>
@@ -1437,15 +1500,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E63" t="str">
-        <v>Thiruvarur, Tamil Nadu</v>
+        <v>Dombivli, Maharashtra</v>
+      </c>
+      <c r="F63" t="str">
+        <v>(0251) 2481544</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>SRM UNIVERSITY, SONEPAT</v>
+        <v>Rayat Shikshan Sanstha</v>
       </c>
       <c r="B64" t="str">
-        <v>http://www.srmuniversity.ac.in</v>
+        <v>http://rayatshikshan.edu/</v>
       </c>
       <c r="C64" t="str">
         <v>Higher Education</v>
@@ -1454,15 +1520,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E64" t="str">
-        <v>Sonepat, Haryana</v>
+        <v>Satara, Maharashtra</v>
+      </c>
+      <c r="F64" t="str">
+        <v>02162-233857</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>JIS College of Engineering Official</v>
+        <v>Dev Bhoomi Institute Of Technology</v>
       </c>
       <c r="B65" t="str">
-        <v>http://www.jiscollege.ac.in</v>
+        <v>http://www.dbitdoon.com</v>
       </c>
       <c r="C65" t="str">
         <v>Higher Education</v>
@@ -1471,32 +1540,26 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E65" t="str">
-        <v>Nadia, West Bengal</v>
+        <v>Dehradun, Uttaranchal</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>SPJIMR - PGEMP/EMBA</v>
+        <v>Madan Mohan Malaviya Engineering College (MMMEC)</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.spjimr.org/pgemp</v>
+        <v>http://www.mmmec.net</v>
       </c>
       <c r="C66" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D66" t="str">
         <v>5,001-10,000 employees</v>
-      </c>
-      <c r="E66" t="str">
-        <v>Mumbai, Maharashtra</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>State Council of Educational Research &amp; Training</v>
-      </c>
-      <c r="B67" t="str">
-        <v>https://onlinecareer360.com/</v>
+        <v>Textile &amp; Engineering Institute, Rajwada Chowk, ICHALKARNJI</v>
       </c>
       <c r="C67" t="str">
         <v>Higher Education</v>
@@ -1505,15 +1568,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E67" t="str">
-        <v>DELHI, Delhi</v>
+        <v>Ichalkaranji, Maharashtra</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Law Centre - II, Faculty Of Law, University of Delhi</v>
+        <v>ADESH UNIVERSITY</v>
       </c>
       <c r="B68" t="str">
-        <v>http://lc2.du.ac.in</v>
+        <v>http://adeshuniversity.ac.in</v>
       </c>
       <c r="C68" t="str">
         <v>Higher Education</v>
@@ -1522,15 +1585,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E68" t="str">
-        <v>New Delhi, Delhi</v>
+        <v>Bathinda, Punjab</v>
+      </c>
+      <c r="F68" t="str">
+        <v>9914102012</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Govt. SKSJT Institute</v>
+        <v>Dr.N.G.P. Institute of Technology.</v>
       </c>
       <c r="B69" t="str">
-        <v>https://gsksjti.ac.in/</v>
+        <v>http://www.drngpit.ac.in</v>
       </c>
       <c r="C69" t="str">
         <v>Higher Education</v>
@@ -1539,15 +1605,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E69" t="str">
-        <v>Bengaluru North, Karnataka</v>
+        <v>Coimbatore, Tamil Nadu</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Indira Gandhi Medical College, Shimla Himachal Pradesh</v>
+        <v>K S Institute of Technology, BANGALORE</v>
       </c>
       <c r="B70" t="str">
-        <v>http://www.igmcshimla.org</v>
+        <v>https://sarkariresults360.in</v>
       </c>
       <c r="C70" t="str">
         <v>Higher Education</v>
@@ -1556,15 +1622,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E70" t="str">
-        <v>SHIMLA, Himachal Pradesh</v>
+        <v>Bangalore - 560 062., Karnataka</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Maria's Day School</v>
+        <v>Central University of Gujarat - India</v>
       </c>
       <c r="B71" t="str">
-        <v>http://marias.co.in</v>
+        <v>http://cug.ac.in</v>
       </c>
       <c r="C71" t="str">
         <v>Higher Education</v>
@@ -1573,15 +1639,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E71" t="str">
-        <v>Howrah, West Bengal</v>
+        <v>Gandhinagar, Gujarat</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>UGC NET Junior Research Fellowship (Ministry of Education, Govt. of India)</v>
+        <v>Krishna Vishwa Vidyapeeth "Deemed to be University"</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.ugc.gov.in/</v>
+        <v>http://www.kvv.edu.in</v>
       </c>
       <c r="C72" t="str">
         <v>Higher Education</v>
@@ -1590,15 +1656,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E72" t="str">
-        <v>New Delhi , Delhi</v>
+        <v>KARAD, Maharashtra</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Sainik School Amaravathinagar</v>
+        <v>Destination Manipal</v>
       </c>
       <c r="B73" t="str">
-        <v>http://www.sainikschoolamaravathinagar.edu.in/</v>
+        <v>http://www.manipal.edu</v>
       </c>
       <c r="C73" t="str">
         <v>Higher Education</v>
@@ -1607,15 +1673,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E73" t="str">
-        <v>Amaravathinagar, Tamilnadu</v>
+        <v>Manipal, Karnataka</v>
+      </c>
+      <c r="F73" t="str">
+        <v>92437 77711</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Anuradha College of Pharmacy, Chikhali.</v>
+        <v>JNU Placement Cell</v>
       </c>
       <c r="B74" t="str">
-        <v>http://anuradhapharmacydegree.co.in/</v>
+        <v>http://jnu.ac.in/placementcell/</v>
       </c>
       <c r="C74" t="str">
         <v>Higher Education</v>
@@ -1624,15 +1693,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E74" t="str">
-        <v>Chikhli, Maharashtra</v>
+        <v>New Delhi, Delhi</v>
+      </c>
+      <c r="F74" t="str">
+        <v>8500985721</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>PT. B.D. SHARMA PGIMS</v>
+        <v>Dayananda Sagar Business School</v>
       </c>
       <c r="B75" t="str">
-        <v>http://www.uhsr.ac.in</v>
+        <v>www.dsbs.edu.in</v>
       </c>
       <c r="C75" t="str">
         <v>Higher Education</v>
@@ -1641,15 +1713,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E75" t="str">
-        <v>Rohtak, Rohtak</v>
+        <v>Bangalore, Karnataka</v>
+      </c>
+      <c r="F75" t="str">
+        <v>+91-9611515262</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>HR - Akal Academies</v>
+        <v>Seethalakshmi Ramaswami College, Tiruchirappalli - 620 002.</v>
       </c>
       <c r="B76" t="str">
-        <v>https://akalacademy.in/</v>
+        <v>http://www.srcollege.edu.in</v>
       </c>
       <c r="C76" t="str">
         <v>Higher Education</v>
@@ -1658,32 +1733,32 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E76" t="str">
-        <v>Rajgarh, District Sirmour, HIMACHAL PRADESH</v>
+        <v>Tiruchirappalli, Tamil Nadu</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Educational Technology, IIT Bombay</v>
+        <v>Pathfinder Group of Institutes</v>
       </c>
       <c r="B77" t="str">
-        <v>http://www.et.iitb.ac.in</v>
+        <v>http://pathfinder.edu.in</v>
       </c>
       <c r="C77" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D77" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E77" t="str">
-        <v>Mumbai, Maharashtra</v>
+        <v>Kolkata, West Bengal</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Indira Gandhi Agricultural University</v>
+        <v>Synergy University India</v>
       </c>
       <c r="B78" t="str">
-        <v>http://www.igau.edu.in</v>
+        <v>https://synergyuniversity.in/</v>
       </c>
       <c r="C78" t="str">
         <v>Higher Education</v>
@@ -1692,32 +1767,32 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E78" t="str">
-        <v>Raipur, Chhattisgarh</v>
+        <v>Gurugram, Haryana</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>COLLEGE OF ENGINEERING, PATHANAPURAM</v>
+        <v>Ravindra Bharathi Educational Society</v>
       </c>
       <c r="B79" t="str">
-        <v>http://www.cepathanapuram.ac.in</v>
+        <v>http://www.rbschools.in</v>
       </c>
       <c r="C79" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D79" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E79" t="str">
-        <v>PATHANAPURAM, Kerala</v>
+        <v>Hyderabad, Telangana</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Rajiv Gandhi University(A Central University)</v>
+        <v>Central University of Tamil Nadu - India</v>
       </c>
       <c r="B80" t="str">
-        <v>http://www.rgu.ac.in</v>
+        <v>http://cutn.ac.in</v>
       </c>
       <c r="C80" t="str">
         <v>Higher Education</v>
@@ -1726,15 +1801,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E80" t="str">
-        <v>Doimukh, Arunachal Pradesh</v>
+        <v>Thiruvarur, Tamil Nadu</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Ch. Brahm Prakash Govt. Engineering College</v>
+        <v>SRM UNIVERSITY, SONEPAT</v>
       </c>
       <c r="B81" t="str">
-        <v>http://www.gecdelhi.ac.in</v>
+        <v>http://www.srmuniversity.ac.in</v>
       </c>
       <c r="C81" t="str">
         <v>Higher Education</v>
@@ -1743,15 +1818,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E81" t="str">
-        <v>New Delhi, Delhi</v>
+        <v>Sonepat, Haryana</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Tripura Medical College &amp; Dr. B.R.A.M. Teaching Hospital</v>
+        <v>JIS College of Engineering Official</v>
       </c>
       <c r="B82" t="str">
-        <v>http://www.tmc.nic.in</v>
+        <v>http://www.jiscollege.ac.in</v>
       </c>
       <c r="C82" t="str">
         <v>Higher Education</v>
@@ -1760,15 +1835,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E82" t="str">
-        <v>Agartala, Tripura</v>
+        <v>Nadia, West Bengal</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Potti Sri Ramulu Telugu University, Hyderabad</v>
+        <v>SPJIMR - PGEMP/EMBA</v>
       </c>
       <c r="B83" t="str">
-        <v>http://www.teluguuniversity.ac.in</v>
+        <v>https://www.spjimr.org/pgemp</v>
       </c>
       <c r="C83" t="str">
         <v>Higher Education</v>
@@ -1777,15 +1852,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E83" t="str">
-        <v>Hyderabad, Telangana</v>
+        <v>Mumbai, Maharashtra</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Sri Ramachandra Faculty of Engineering and Technology</v>
+        <v>State Council of Educational Research &amp; Training</v>
       </c>
       <c r="B84" t="str">
-        <v>https://www.sret.edu.in</v>
+        <v>https://onlinecareer360.com/</v>
       </c>
       <c r="C84" t="str">
         <v>Higher Education</v>
@@ -1794,15 +1869,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E84" t="str">
-        <v>chennai, Tamil Nadu</v>
+        <v>DELHI, Delhi</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>AIIMS Bathinda</v>
+        <v>Law Centre - II, Faculty Of Law, University of Delhi</v>
       </c>
       <c r="B85" t="str">
-        <v>https://aiimsbathinda.edu.in/</v>
+        <v>http://lc2.du.ac.in</v>
       </c>
       <c r="C85" t="str">
         <v>Higher Education</v>
@@ -1811,15 +1886,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E85" t="str">
-        <v>Bathinda, Punjab</v>
+        <v>New Delhi, Delhi</v>
+      </c>
+      <c r="F85" t="str">
+        <v>01127667052</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Government Engineering College, Rewa</v>
+        <v>Govt. SKSJT Institute</v>
       </c>
       <c r="B86" t="str">
-        <v>http://www.recrewa.ac.in</v>
+        <v>https://gsksjti.ac.in/</v>
       </c>
       <c r="C86" t="str">
         <v>Higher Education</v>
@@ -1828,15 +1906,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E86" t="str">
-        <v>Rewa, Madhya Pradesh</v>
+        <v>Bengaluru North, Karnataka</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Coochbehar College</v>
+        <v>Indira Gandhi Medical College, Shimla Himachal Pradesh</v>
       </c>
       <c r="B87" t="str">
-        <v>http://www.coochbeharcollege.org.in</v>
+        <v>http://www.igmcshimla.org</v>
       </c>
       <c r="C87" t="str">
         <v>Higher Education</v>
@@ -1845,15 +1923,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E87" t="str">
-        <v>Cooch Behar, West Bengal</v>
+        <v>SHIMLA, Himachal Pradesh</v>
+      </c>
+      <c r="F87" t="str">
+        <v>01772654713</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>SHRAMSHAKTI COLLEGE OF AGRICULTURE, MALDAD</v>
+        <v>Maria's Day School</v>
       </c>
       <c r="B88" t="str">
-        <v>http://www.sevasanskarsanstha.org</v>
+        <v>http://marias.co.in</v>
       </c>
       <c r="C88" t="str">
         <v>Higher Education</v>
@@ -1862,32 +1943,35 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E88" t="str">
-        <v>Sangamner, Maharashtra</v>
+        <v>Howrah, West Bengal</v>
+      </c>
+      <c r="F88" t="str">
+        <v>+ 91-33-26375265</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Government College (Autonomous), Anantapuramu</v>
+        <v>SNBP WORLD SCHOOL,RAHATANI</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.gdcatp.ac.in/</v>
+        <v>http://www.snbpinstitutes.com/</v>
       </c>
       <c r="C89" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D89" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E89" t="str">
-        <v>ANANTAPUR, Andhra Pradesh</v>
+        <v>Pune, Maharashtra</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>School of Commerce, Finance &amp; Accountancy</v>
+        <v>UGC NET Junior Research Fellowship (Ministry of Education, Govt. of India)</v>
       </c>
       <c r="B90" t="str">
-        <v>https://lavasa.christuniversity.in/academics/main-campus/School%20of%20Commerce,%20Finance%20and%20Accountancy</v>
+        <v>https://www.ugc.gov.in/</v>
       </c>
       <c r="C90" t="str">
         <v>Higher Education</v>
@@ -1896,15 +1980,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E90" t="str">
-        <v>Pune, Maharashtra</v>
+        <v>New Delhi , Delhi</v>
+      </c>
+      <c r="F90" t="str">
+        <v>011-23604446</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>GOVERNMENT ARTS COLLEGE (AUTONOMOUS), SALEM-7</v>
+        <v>Sainik School Amaravathinagar</v>
       </c>
       <c r="B91" t="str">
-        <v>http://www.gacsalem7.co.in/</v>
+        <v>http://www.sainikschoolamaravathinagar.edu.in/</v>
       </c>
       <c r="C91" t="str">
         <v>Higher Education</v>
@@ -1913,15 +2000,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E91" t="str">
-        <v>Salem, Tamil Nadu</v>
+        <v>Amaravathinagar, Tamilnadu</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Shri Shankracharya Technical Campus</v>
+        <v>Anuradha College of Pharmacy, Chikhali.</v>
       </c>
       <c r="B92" t="str">
-        <v>https://www.sstc.ac.in/</v>
+        <v>http://anuradhapharmacydegree.co.in/</v>
       </c>
       <c r="C92" t="str">
         <v>Higher Education</v>
@@ -1930,15 +2017,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E92" t="str">
-        <v>Bhilai, Chhattisgarh</v>
+        <v>Chikhli, Maharashtra</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Digivarsity</v>
+        <v>PT. B.D. SHARMA PGIMS</v>
       </c>
       <c r="B93" t="str">
-        <v>http://www.digivarsity.com</v>
+        <v>http://www.uhsr.ac.in</v>
       </c>
       <c r="C93" t="str">
         <v>Higher Education</v>
@@ -1947,49 +2034,49 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E93" t="str">
-        <v>Borivali East, Mumbai , Maharashtra</v>
+        <v>Rohtak, Rohtak</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>The Oxford College of Engineering</v>
-      </c>
-      <c r="B94" t="str">
-        <v>http://www.theoxford.edu/engineering/</v>
+        <v>Student Mentorship Program MNNIT Allahabad</v>
       </c>
       <c r="C94" t="str">
-        <v>Higher Education</v>
+        <v>Education</v>
       </c>
       <c r="D94" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E94" t="str">
-        <v>Bengaluru, Karnataka</v>
+        <v>Prayagraj, Uttar Pradesh</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Faculty of planning</v>
+        <v>Panimalar Engineering College</v>
       </c>
       <c r="B95" t="str">
-        <v>https://cept.ac.in/#cept</v>
+        <v>http://www.panimalar.ac.in</v>
       </c>
       <c r="C95" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D95" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E95" t="str">
-        <v>Ahmedabad , Gujarat</v>
+        <v>Chennai, Tamil Nadu</v>
+      </c>
+      <c r="F95" t="str">
+        <v>+044 -26490404</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Indira College of Engineering and Management, Pune (MBA)</v>
+        <v>HR - Akal Academies</v>
       </c>
       <c r="B96" t="str">
-        <v>https://indiraicem.ac.in/</v>
+        <v>https://akalacademy.in/</v>
       </c>
       <c r="C96" t="str">
         <v>Higher Education</v>
@@ -1998,32 +2085,32 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E96" t="str">
-        <v>Pune, Maharashtra</v>
+        <v>Rajgarh, District Sirmour, HIMACHAL PRADESH</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Alumni of Rajasthan university</v>
+        <v>Tree House School - India</v>
       </c>
       <c r="B97" t="str">
-        <v>uniraj.ac.in</v>
+        <v>http://treehousehighschool.com</v>
       </c>
       <c r="C97" t="str">
-        <v>Higher Education</v>
+        <v>Education Management</v>
       </c>
       <c r="D97" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E97" t="str">
-        <v>Jaipur, Rajasthan</v>
+        <v>Mumbai, Maharashtra</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>St. Joseph's Higher Secondary School, Cuddalore</v>
+        <v>Educational Technology, IIT Bombay</v>
       </c>
       <c r="B98" t="str">
-        <v>http://stjosephscud.com/</v>
+        <v>http://www.et.iitb.ac.in</v>
       </c>
       <c r="C98" t="str">
         <v>Higher Education</v>
@@ -2032,15 +2119,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E98" t="str">
-        <v>Cuddalore, Tamil Nadu</v>
+        <v>Mumbai, Maharashtra</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>SNBP International School, Pimpri, Pune</v>
+        <v>Indira Gandhi Agricultural University</v>
       </c>
       <c r="B99" t="str">
-        <v>http://morwadi.cbse.snbpinstitutes.com/</v>
+        <v>http://www.igau.edu.in</v>
       </c>
       <c r="C99" t="str">
         <v>Higher Education</v>
@@ -2049,15 +2136,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E99" t="str">
-        <v>Pune, Maharashtra</v>
+        <v>Raipur, Chhattisgarh</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Lady Brabourne College</v>
+        <v>COLLEGE OF ENGINEERING, PATHANAPURAM</v>
       </c>
       <c r="B100" t="str">
-        <v>https://ladybrabourne.com/</v>
+        <v>http://www.cepathanapuram.ac.in</v>
       </c>
       <c r="C100" t="str">
         <v>Higher Education</v>
@@ -2066,15 +2153,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E100" t="str">
-        <v>Kolkata, West Bengal</v>
+        <v>PATHANAPURAM, Kerala</v>
+      </c>
+      <c r="F100" t="str">
+        <v>+918547852810</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>D. Y. Patil Group</v>
+        <v>Poddar College of Tech. &amp; Management, Bharatpur</v>
       </c>
       <c r="B101" t="str">
-        <v>https://dypgroup.edu.in/</v>
+        <v>http://www.poddarcollege.org</v>
       </c>
       <c r="C101" t="str">
         <v>Higher Education</v>
@@ -2083,15 +2173,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E101" t="str">
-        <v>Kolhapur, Maharashtra</v>
+        <v>Bharatpur, Rajasthan</v>
+      </c>
+      <c r="F101" t="str">
+        <v>7073156565</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Petroleum Star CU</v>
+        <v>Rajiv Gandhi University(A Central University)</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.cuchd.in/uie/petroleum-engg/</v>
+        <v>http://www.rgu.ac.in</v>
       </c>
       <c r="C102" t="str">
         <v>Higher Education</v>
@@ -2100,32 +2193,35 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E102" t="str">
-        <v>Kharar, Punjab</v>
+        <v>Doimukh, Arunachal Pradesh</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Department of Environmental Science, Integral University, Lucknow</v>
+        <v>Delhi Public School, NTPC Vidyut Nagar</v>
       </c>
       <c r="B103" t="str">
-        <v>https://iul.ac.in/ES/</v>
+        <v>http://www.dpsvndadri.com/</v>
       </c>
       <c r="C103" t="str">
-        <v>Higher Education</v>
+        <v>Primary and Secondary Education</v>
       </c>
       <c r="D103" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E103" t="str">
-        <v>Lucknow, Uttar Pradesh</v>
+        <v>Dadri, Uttar Pradesh</v>
+      </c>
+      <c r="F103" t="str">
+        <v>0120-2671331</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Bharati Vidyapeeth CDOE</v>
+        <v>Ch. Brahm Prakash Govt. Engineering College</v>
       </c>
       <c r="B104" t="str">
-        <v>https://bharatividyapeethonline.com/online_admission_2023/</v>
+        <v>http://www.gecdelhi.ac.in</v>
       </c>
       <c r="C104" t="str">
         <v>Higher Education</v>
@@ -2134,15 +2230,18 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E104" t="str">
-        <v>Pune, Maharashtra</v>
+        <v>New Delhi, Delhi</v>
+      </c>
+      <c r="F104" t="str">
+        <v>+91-011-25318157</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>ICFAI Business School Dehradun</v>
+        <v>Tripura Medical College &amp; Dr. B.R.A.M. Teaching Hospital</v>
       </c>
       <c r="B105" t="str">
-        <v>https://ibsindia.org/dehradun/</v>
+        <v>http://www.tmc.nic.in</v>
       </c>
       <c r="C105" t="str">
         <v>Higher Education</v>
@@ -2151,29 +2250,32 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E105" t="str">
-        <v>Dehradun , Uttarakhand</v>
+        <v>Agartala, Tripura</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Radha Govind University, Delhi</v>
+        <v>Potti Sri Ramulu Telugu University, Hyderabad</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.rguniversity.org/</v>
+        <v>http://www.teluguuniversity.ac.in</v>
       </c>
       <c r="C106" t="str">
         <v>Higher Education</v>
       </c>
       <c r="D106" t="str">
         <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E106" t="str">
+        <v>Hyderabad, Telangana</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Government College (Autonomous), Anantapuramu</v>
+        <v>Sri Ramachandra Faculty of Engineering and Technology</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.gdcatp.ac.in/</v>
+        <v>https://www.sret.edu.in</v>
       </c>
       <c r="C107" t="str">
         <v>Higher Education</v>
@@ -2182,32 +2284,35 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E107" t="str">
-        <v>Anantapur, Andhra Pradesh</v>
+        <v>chennai, Tamil Nadu</v>
+      </c>
+      <c r="F107" t="str">
+        <v>782 489 6500</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>SNM college Maliankara</v>
+        <v>Aditya Group India</v>
       </c>
       <c r="B108" t="str">
-        <v>https://snmcollege.ac.in/</v>
+        <v>https://adityagroupindia.org/society/</v>
       </c>
       <c r="C108" t="str">
-        <v>Higher Education</v>
+        <v>Education</v>
       </c>
       <c r="D108" t="str">
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E108" t="str">
-        <v>North parvoor, Kerala</v>
+        <v>Kolkata , West Bengal</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Deenbandhu Chhotu Ram University of Science and Technology</v>
+        <v>AIIMS Bathinda</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.dcrustm.ac.in/</v>
+        <v>https://aiimsbathinda.edu.in/</v>
       </c>
       <c r="C109" t="str">
         <v>Higher Education</v>
@@ -2216,15 +2321,15 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E109" t="str">
-        <v>Sonipat, Haryana</v>
+        <v>Bathinda, Punjab</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Bharati Vidyapeeth Centre for Distance &amp; Online Education</v>
+        <v>Government Engineering College, Rewa</v>
       </c>
       <c r="B110" t="str">
-        <v>https://bharatividyapeethonline.com/</v>
+        <v>http://www.recrewa.ac.in</v>
       </c>
       <c r="C110" t="str">
         <v>Higher Education</v>
@@ -2233,12 +2338,778 @@
         <v>5,001-10,000 employees</v>
       </c>
       <c r="E110" t="str">
+        <v>Rewa, Madhya Pradesh</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Coochbehar College</v>
+      </c>
+      <c r="B111" t="str">
+        <v>http://www.coochbeharcollege.org.in</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D111" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E111" t="str">
+        <v>Cooch Behar, West Bengal</v>
+      </c>
+      <c r="F111" t="str">
+        <v>03582256798</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>SHRAMSHAKTI COLLEGE OF AGRICULTURE, MALDAD</v>
+      </c>
+      <c r="B112" t="str">
+        <v>http://www.sevasanskarsanstha.org</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D112" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E112" t="str">
+        <v>Sangamner, Maharashtra</v>
+      </c>
+      <c r="F112" t="str">
+        <v>7741844499</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Government College (Autonomous), Anantapuramu</v>
+      </c>
+      <c r="B113" t="str">
+        <v>https://www.gdcatp.ac.in/</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D113" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E113" t="str">
+        <v>ANANTAPUR, Andhra Pradesh</v>
+      </c>
+      <c r="F113" t="str">
+        <v>91-8554-240825</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Jawahar Vidya Mandir Shyamali</v>
+      </c>
+      <c r="B114" t="str">
+        <v>http://www.jvmshyamali.com/</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Primary and Secondary Education</v>
+      </c>
+      <c r="D114" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E114" t="str">
+        <v>Ranchi, Jharkhand</v>
+      </c>
+      <c r="F114" t="str">
+        <v>0651 241 1221</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>NIPER Hajipur Alumni Forum</v>
+      </c>
+      <c r="B115" t="str">
+        <v>https://www.niperhajipur.ac.in/</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D115" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Hajipur, Bihar</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>GNITS_IT</v>
+      </c>
+      <c r="B116" t="str">
+        <v>https://www.gnits.ac.in/</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D116" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Shaikpet, Telangana</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Indusvalley International School</v>
+      </c>
+      <c r="B117" t="str">
+        <v>http://indusvalleyinternationalschool.com/</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Education Management</v>
+      </c>
+      <c r="D117" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Hyderabad, Telangana</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>NITTTR Bhopal - SIEMENS - Center of Excellence Digitization &amp; Industry 4.0</v>
+      </c>
+      <c r="B118" t="str">
+        <v>http://nitttrbpl.ac.in/new/excellence_siemens.php</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D118" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Bhopal, Madhya Pradesh</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>School of Commerce, Finance &amp; Accountancy</v>
+      </c>
+      <c r="B119" t="str">
+        <v>https://lavasa.christuniversity.in/academics/main-campus/School%20of%20Commerce,%20Finance%20and%20Accountancy</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D119" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E119" t="str">
         <v>Pune, Maharashtra</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>GOVERNMENT ARTS COLLEGE (AUTONOMOUS), SALEM-7</v>
+      </c>
+      <c r="B120" t="str">
+        <v>http://www.gacsalem7.co.in/</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D120" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Salem, Tamil Nadu</v>
+      </c>
+      <c r="F120" t="str">
+        <v>0427-2413273</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>GRV Business Management Academy, Bangalore</v>
+      </c>
+      <c r="B121" t="str">
+        <v>http://www.grvacademy.com</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Education Management</v>
+      </c>
+      <c r="D121" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E121" t="str">
+        <v>Bangalore, Karnataka</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>icon44</v>
+      </c>
+      <c r="B122" t="str">
+        <v>https://icon44.mytutoring.co/</v>
+      </c>
+      <c r="C122" t="str">
+        <v>E-Learning Providers</v>
+      </c>
+      <c r="D122" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E122" t="str">
+        <v>New Delhi, Delhi</v>
+      </c>
+      <c r="F122" t="str">
+        <v>9958969870</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Shri Shankracharya Technical Campus</v>
+      </c>
+      <c r="B123" t="str">
+        <v>https://www.sstc.ac.in/</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D123" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Bhilai, Chhattisgarh</v>
+      </c>
+      <c r="F123" t="str">
+        <v>0788-4088888</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Digivarsity</v>
+      </c>
+      <c r="B124" t="str">
+        <v>http://www.digivarsity.com</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D124" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Borivali East, Mumbai , Maharashtra</v>
+      </c>
+      <c r="F124" t="str">
+        <v>+91 720 467 7888</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Josuman French Enrichment Program</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D125" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Delhi , Delhi</v>
+      </c>
+      <c r="F125" t="str">
+        <v>8447801256</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>The Oxford College of Engineering</v>
+      </c>
+      <c r="B126" t="str">
+        <v>http://www.theoxford.edu/engineering/</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D126" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Bengaluru, Karnataka</v>
+      </c>
+      <c r="F126" t="str">
+        <v>099643 13495</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Faculty of planning</v>
+      </c>
+      <c r="B127" t="str">
+        <v>https://cept.ac.in/#cept</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D127" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Ahmedabad , Gujarat</v>
+      </c>
+      <c r="F127" t="str">
+        <v>7968310000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Indira College of Engineering and Management, Pune (MBA)</v>
+      </c>
+      <c r="B128" t="str">
+        <v>https://indiraicem.ac.in/</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D128" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Pune, Maharashtra</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Alumni of Rajasthan university</v>
+      </c>
+      <c r="B129" t="str">
+        <v>uniraj.ac.in</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D129" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Jaipur, Rajasthan</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Dr. Bhanuben Nanavati College of Architecture</v>
+      </c>
+      <c r="B130" t="str">
+        <v>http://www.bnca.ac.in</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Education Management</v>
+      </c>
+      <c r="D130" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Pune, Maharashtra</v>
+      </c>
+      <c r="F130" t="str">
+        <v>9370315272</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>ApeejayJobs</v>
+      </c>
+      <c r="B131" t="str">
+        <v>https://apeejayjobs.com/</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D131" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Delhi, Delhi</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>St. Joseph's Higher Secondary School, Cuddalore</v>
+      </c>
+      <c r="B132" t="str">
+        <v>http://stjosephscud.com/</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D132" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Cuddalore, Tamil Nadu</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>SNBP International School, Pimpri, Pune</v>
+      </c>
+      <c r="B133" t="str">
+        <v>http://morwadi.cbse.snbpinstitutes.com/</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D133" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Pune, Maharashtra</v>
+      </c>
+      <c r="F133" t="str">
+        <v>+917030941743</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Springdale Primary School</v>
+      </c>
+      <c r="B134" t="str">
+        <v>https://www.springdaleprimary.com/</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Primary and Secondary Education</v>
+      </c>
+      <c r="D134" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Kalyani, West Bengal</v>
+      </c>
+      <c r="F134" t="str">
+        <v>(033) 2582-0521</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Lady Brabourne College</v>
+      </c>
+      <c r="B135" t="str">
+        <v>https://ladybrabourne.com/</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D135" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E135" t="str">
+        <v>Kolkata, West Bengal</v>
+      </c>
+      <c r="F135" t="str">
+        <v>033 2289 7720</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>DR Academy</v>
+      </c>
+      <c r="B136" t="str">
+        <v>https://dracademy.co.in/</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D136" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Jalahalli, Bangalore, Karnataka</v>
+      </c>
+      <c r="F136" t="str">
+        <v>9008030463</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>DAV Public School, Hehal, Ranchi - 834005</v>
+      </c>
+      <c r="B137" t="str">
+        <v>http://davhehal.in/</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Primary and Secondary Education</v>
+      </c>
+      <c r="D137" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Ranchi, Jharkhand</v>
+      </c>
+      <c r="F137" t="str">
+        <v>9262395062</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>D. Y. Patil Group</v>
+      </c>
+      <c r="B138" t="str">
+        <v>https://dypgroup.edu.in/</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D138" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Kolhapur, Maharashtra</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Petroleum Star CU</v>
+      </c>
+      <c r="B139" t="str">
+        <v>https://www.cuchd.in/uie/petroleum-engg/</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D139" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Kharar, Punjab</v>
+      </c>
+      <c r="F139" t="str">
+        <v>8682877641</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>U.C.P. ENGINEERING SCHOOL</v>
+      </c>
+      <c r="B140" t="str">
+        <v>https://ucpesbam.in/</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Education Management</v>
+      </c>
+      <c r="D140" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Berhampur, odisha</v>
+      </c>
+      <c r="F140" t="str">
+        <v>9874561232</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Home Revise</v>
+      </c>
+      <c r="B141" t="str">
+        <v>https://www.facebook.com/profile.php?id=100086136834898</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Primary and Secondary Education</v>
+      </c>
+      <c r="D141" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Thane, Maharashtra</v>
+      </c>
+      <c r="F141" t="str">
+        <v>8097033275</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Department of Environmental Science, Integral University, Lucknow</v>
+      </c>
+      <c r="B142" t="str">
+        <v>https://iul.ac.in/ES/</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D142" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Lucknow, Uttar Pradesh</v>
+      </c>
+      <c r="F142" t="str">
+        <v>6386468311</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Vidya Bharati Purvottar Kshetra</v>
+      </c>
+      <c r="B143" t="str">
+        <v>https://vidyabharatipurvottar.co.in</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D143" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Guwahati, Assam</v>
+      </c>
+      <c r="F143" t="str">
+        <v>0361-3563693</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>APCCE, India</v>
+      </c>
+      <c r="B144" t="str">
+        <v>http://apcce.gov.in/</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D144" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>INPS CLASSES</v>
+      </c>
+      <c r="B145" t="str">
+        <v>https://www.inpsmcalucknow.com/</v>
+      </c>
+      <c r="C145" t="str">
+        <v>E-Learning Providers</v>
+      </c>
+      <c r="D145" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E145" t="str">
+        <v>LUCKNOW, UP</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Darwinedtech</v>
+      </c>
+      <c r="B146" t="str">
+        <v>https://www.darwinedtech.com/</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D146" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Mumbai, maharashtra</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Cardiological Society of India</v>
+      </c>
+      <c r="B147" t="str">
+        <v>http://www.csi76.com/</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D147" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E147" t="str">
+        <v>Kolkata, West Bengal</v>
+      </c>
+      <c r="F147" t="str">
+        <v>07498268198</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Bharati Vidyapeeth CDOE</v>
+      </c>
+      <c r="B148" t="str">
+        <v>https://bharatividyapeethonline.com/online_admission_2023/</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D148" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Pune, Maharashtra</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>E-School India</v>
+      </c>
+      <c r="B149" t="str">
+        <v>https://firstprize.in/</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D149" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E149" t="str">
+        <v>Kota, Rajasthan</v>
+      </c>
+      <c r="F149" t="str">
+        <v>+917014281139</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>ICFAI Business School Dehradun</v>
+      </c>
+      <c r="B150" t="str">
+        <v>https://ibsindia.org/dehradun/</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Higher Education</v>
+      </c>
+      <c r="D150" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Dehradun , Uttarakhand</v>
+      </c>
+      <c r="F150" t="str">
+        <v>9927857700</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>International Relations Office, IIT Roorkee</v>
+      </c>
+      <c r="B151" t="str">
+        <v>https://ir.iitr.ac.in/</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Education</v>
+      </c>
+      <c r="D151" t="str">
+        <v>5,001-10,000 employees</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Roorkee, Uttarakhand</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E110"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F151"/>
   </ignoredErrors>
 </worksheet>
 </file>